--- a/config_2.2/fish_2d_fish_server.xlsx
+++ b/config_2.2/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1715,35 +1715,35 @@
     <t>182,</t>
   </si>
   <si>
+    <t>0,0,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.01,</t>
+  </si>
+  <si>
     <t>0,0,0.1,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.3,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0.01,</t>
-  </si>
-  <si>
-    <t>0,0,0.1,0.2</t>
+  </si>
+  <si>
+    <t>活动boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.3,0.4</t>
-  </si>
-  <si>
-    <t>活动boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.4,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2215,7 +2215,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
       <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
@@ -8302,9 +8302,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H184" sqref="H184"/>
+      <selection pane="bottomLeft" activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16995,7 +16995,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18188,7 +18188,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D45" s="18">
         <v>0</v>
@@ -18211,7 +18211,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D46" s="18">
         <v>0</v>
@@ -18234,7 +18234,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D47" s="18">
         <v>0</v>
@@ -18257,7 +18257,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D48" s="18">
         <v>1</v>
@@ -18280,7 +18280,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -18303,7 +18303,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -18326,7 +18326,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -18349,7 +18349,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -19350,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F36" s="16">
         <v>0</v>
